--- a/uploads/1A.xlsx
+++ b/uploads/1A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AA\LISTAS OFICIALES 2025\RELOJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADRIAN\.cursor-tutor\asistencia-simple\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F5ABD4-A806-4199-97C8-5BAABA62A567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE4E81-1358-4CE9-BBB1-0613818D0385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rptListadoEstudiantes" sheetId="1" r:id="rId1"/>
@@ -383,6 +383,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -393,16 +403,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,37 +780,37 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="15.6">
+      <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="15.6">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
@@ -862,7 +862,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <v>924252044</v>
+        <v>902500360</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
@@ -879,7 +879,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <v>993250394</v>
+        <v>934892583</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -1096,12 +1096,12 @@
       <c r="C19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="3">
@@ -1240,43 +1240,43 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
         <v>948752603</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="18">
+      <c r="A29" s="14">
         <v>25</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="18">
+      <c r="A30" s="14">
         <v>26</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
